--- a/ScanRig_3D_BOM_v1.xlsx
+++ b/ScanRig_3D_BOM_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\_Publish\Scanner\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29103F7C-B468-432F-93CB-1213A9EBAE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712D2101-B431-4C08-A5B5-A753BB84D4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5AA4F6F-EB5F-4689-A1E0-1B2922876BDD}"/>
   </bookViews>
@@ -150,12 +150,6 @@
     <t>Power</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/32802151924.html</t>
-  </si>
-  <si>
-    <t>Makerbase MKS Gen_L 2.1 Control Board</t>
-  </si>
-  <si>
     <t>Pack 50</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>Arduino Uno + CNC Shield pack</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005006431685856.html</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
@@ -848,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="12">
@@ -907,10 +907,10 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
@@ -973,16 +973,16 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="5">
         <v>3.84</v>
@@ -1032,7 +1032,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -1083,14 +1083,14 @@
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="12">
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E20" s="5">
         <v>6.36</v>
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>30</v>
@@ -1200,7 +1200,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5">
         <f>E26*C26+F26</f>
-        <v>0.74</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1219,11 +1219,11 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" s="20">
         <f>SUM(G2:G27)</f>
-        <v>146.15000000000003</v>
+        <v>145.78000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
     </row>
     <row r="31" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="13">
@@ -1261,7 +1261,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="12">
@@ -1279,7 +1279,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="12">
@@ -1297,7 +1297,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="12">
@@ -1315,7 +1315,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="12">
@@ -1333,7 +1333,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="13">
@@ -1351,7 +1351,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="11">
@@ -1369,7 +1369,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="11">
@@ -1387,7 +1387,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="11">
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="11">
@@ -1423,7 +1423,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="11">
@@ -1441,7 +1441,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="11">
@@ -1459,7 +1459,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="11">
@@ -1477,7 +1477,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G46" s="21">
         <f>SUM(G32:G45)</f>
